--- a/notebooks/OMIM_610904_individuals.xlsx
+++ b/notebooks/OMIM_610904_individuals.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Documents/Arbeit/BIH/Projekte/Projekte_Python/pyphetools/notebooks/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615121DC-67E1-BC49-AE67-F3B390E27E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="21880" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -304,8 +310,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,13 +374,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -412,7 +426,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -446,6 +460,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -480,9 +495,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -655,14 +671,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1074,7 +1092,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>53</v>
       </c>
@@ -1094,7 +1112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:68">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>53</v>
       </c>
@@ -1114,7 +1132,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>53</v>
       </c>
@@ -1134,7 +1152,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:68">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>53</v>
       </c>
@@ -1154,7 +1172,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>53</v>
       </c>
@@ -1174,7 +1192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:68">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>53</v>
       </c>
@@ -1194,7 +1212,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:68">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>53</v>
       </c>
@@ -1214,7 +1232,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:68">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>53</v>
       </c>
@@ -1234,7 +1252,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:68">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>53</v>
       </c>
@@ -1254,7 +1272,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:68">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>53</v>
       </c>

--- a/notebooks/OMIM_610904_individuals.xlsx
+++ b/notebooks/OMIM_610904_individuals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Documents/Arbeit/BIH/Projekte/Projekte_Python/pyphetools/notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Documents/Arbeit/BIH/Phenopackets/Phenopacket Store/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615121DC-67E1-BC49-AE67-F3B390E27E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885C1015-B299-4E4A-8731-73C412C965FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="21880" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29020" yWindow="-9780" windowWidth="42860" windowHeight="8540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="184">
   <si>
     <t>PMID</t>
   </si>
@@ -73,24 +73,6 @@
     <t>HPO</t>
   </si>
   <si>
-    <t>Hyperorality</t>
-  </si>
-  <si>
-    <t>Small nail</t>
-  </si>
-  <si>
-    <t>Redundant skin</t>
-  </si>
-  <si>
-    <t>Hypertelorism</t>
-  </si>
-  <si>
-    <t>Multicystic kidney dysplasia</t>
-  </si>
-  <si>
-    <t>Posteriorly rotated ears</t>
-  </si>
-  <si>
     <t>Abnormality of eye movement</t>
   </si>
   <si>
@@ -184,9 +166,6 @@
     <t>OMIM:610904</t>
   </si>
   <si>
-    <t>SNF8 subunit of ESCRT-II</t>
-  </si>
-  <si>
     <t>HGNC:17028</t>
   </si>
   <si>
@@ -208,24 +187,6 @@
     <t>na</t>
   </si>
   <si>
-    <t>HP:0000710</t>
-  </si>
-  <si>
-    <t>HP:0001792</t>
-  </si>
-  <si>
-    <t>HP:0001582</t>
-  </si>
-  <si>
-    <t>HP:0000316</t>
-  </si>
-  <si>
-    <t>HP:0000003</t>
-  </si>
-  <si>
-    <t>HP:0000358</t>
-  </si>
-  <si>
     <t>HP:0000496</t>
   </si>
   <si>
@@ -305,13 +266,319 @@
   </si>
   <si>
     <t>HP:0000028</t>
+  </si>
+  <si>
+    <t>PMID:38423010</t>
+  </si>
+  <si>
+    <t>Bi-allelic variants in SNF8 cause a disease spectrum ranging from severe developmental and epileptic encephalopathy to syndromic optic atrophy</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>c.501C&gt;A (p.Tyr167Ter)</t>
+  </si>
+  <si>
+    <t>c.572G&gt;A (p.Gly191Asp)</t>
+  </si>
+  <si>
+    <t>cmpd-het</t>
+  </si>
+  <si>
+    <t>c.236C&gt;T (p.Pro79Leu)</t>
+  </si>
+  <si>
+    <t>c.623G&gt;T (p.Arg208Leu)</t>
+  </si>
+  <si>
+    <t>hom</t>
+  </si>
+  <si>
+    <t>c.423−1G&gt;C</t>
+  </si>
+  <si>
+    <t>c.304G&gt;A (p.Val102Ile)</t>
+  </si>
+  <si>
+    <t>c.673_683delinsTGGA (p.Asp225TrpfsTer99)</t>
+  </si>
+  <si>
+    <t>0Y8M</t>
+  </si>
+  <si>
+    <t>0Y3M</t>
+  </si>
+  <si>
+    <t>4Y6M</t>
+  </si>
+  <si>
+    <t>18Y0M</t>
+  </si>
+  <si>
+    <t>27Y0M</t>
+  </si>
+  <si>
+    <t>17Y0M</t>
+  </si>
+  <si>
+    <t>4Y0M</t>
+  </si>
+  <si>
+    <t>congenital onset</t>
+  </si>
+  <si>
+    <t>6Y0M</t>
+  </si>
+  <si>
+    <t>8Y0M</t>
+  </si>
+  <si>
+    <t>1Y5M</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>observed</t>
+  </si>
+  <si>
+    <t>Death in infancy</t>
+  </si>
+  <si>
+    <t>HP:0001522</t>
+  </si>
+  <si>
+    <t>excluded</t>
+  </si>
+  <si>
+    <t>Congenital onset</t>
+  </si>
+  <si>
+    <t>Abnormal blood oxygen level</t>
+  </si>
+  <si>
+    <t>HP:0500165</t>
+  </si>
+  <si>
+    <t>Hypotonia</t>
+  </si>
+  <si>
+    <t>HP:0001252</t>
+  </si>
+  <si>
+    <t>Feeding difficulties</t>
+  </si>
+  <si>
+    <t>HP:0011968</t>
+  </si>
+  <si>
+    <t>Severe global developmental delay</t>
+  </si>
+  <si>
+    <t>HP:0011344</t>
+  </si>
+  <si>
+    <t>Mild global developmental delay</t>
+  </si>
+  <si>
+    <t>HP:0011342</t>
+  </si>
+  <si>
+    <t>Intellectual disability, mild</t>
+  </si>
+  <si>
+    <t>HP:0001256</t>
+  </si>
+  <si>
+    <t>Intellectual disability, moderate</t>
+  </si>
+  <si>
+    <t>HP:0002342</t>
+  </si>
+  <si>
+    <t>Juvenile onset</t>
+  </si>
+  <si>
+    <t>Limb joint contracture</t>
+  </si>
+  <si>
+    <t>HP:0003121</t>
+  </si>
+  <si>
+    <t>Hypoplasia of the corpus callosum</t>
+  </si>
+  <si>
+    <t>HP:0002079</t>
+  </si>
+  <si>
+    <t>Abnormal corpus callosum morphology</t>
+  </si>
+  <si>
+    <t>HP:0001273</t>
+  </si>
+  <si>
+    <t>Abnormality of speech or vocalization</t>
+  </si>
+  <si>
+    <t>HP:0002167</t>
+  </si>
+  <si>
+    <t>Neonatal onset</t>
+  </si>
+  <si>
+    <t>Motor delay</t>
+  </si>
+  <si>
+    <t>HP:0001270</t>
+  </si>
+  <si>
+    <t>Delayed fine motor development</t>
+  </si>
+  <si>
+    <t>HP:0010862</t>
+  </si>
+  <si>
+    <t>Atypical behavior</t>
+  </si>
+  <si>
+    <t>HP:0000708</t>
+  </si>
+  <si>
+    <t>Abnormal heart morphology</t>
+  </si>
+  <si>
+    <t>HP:0001627</t>
+  </si>
+  <si>
+    <t>Gastroesophageal reflux</t>
+  </si>
+  <si>
+    <t>HP:0002020</t>
+  </si>
+  <si>
+    <t>Hyperbilirubinemia</t>
+  </si>
+  <si>
+    <t>HP:0002904</t>
+  </si>
+  <si>
+    <t>Conductive hearing impairment</t>
+  </si>
+  <si>
+    <t>HP:0000405</t>
+  </si>
+  <si>
+    <t>Abnormality of the face</t>
+  </si>
+  <si>
+    <t>HP:0000271</t>
+  </si>
+  <si>
+    <t>Abnormality of the outer ear</t>
+  </si>
+  <si>
+    <t>HP:0000356</t>
+  </si>
+  <si>
+    <t>Anteverted ears</t>
+  </si>
+  <si>
+    <t>HP:0040080</t>
+  </si>
+  <si>
+    <t>Abnormality of the kidney</t>
+  </si>
+  <si>
+    <t>HP:0000077</t>
+  </si>
+  <si>
+    <t>Abnormality of the genital system</t>
+  </si>
+  <si>
+    <t>HP:0000078</t>
+  </si>
+  <si>
+    <t>Hemihypertrophy</t>
+  </si>
+  <si>
+    <t>HP:0001528</t>
+  </si>
+  <si>
+    <t>Syndactyly</t>
+  </si>
+  <si>
+    <t>HP:0001159</t>
+  </si>
+  <si>
+    <t>Abnormality of skin pigmentation</t>
+  </si>
+  <si>
+    <t>HP:0001000</t>
+  </si>
+  <si>
+    <t>Hallux valgus</t>
+  </si>
+  <si>
+    <t>HP:0001822</t>
+  </si>
+  <si>
+    <t>Blake's pouch cyst</t>
+  </si>
+  <si>
+    <t>HP:0033140</t>
+  </si>
+  <si>
+    <t>Arachnoid cyst</t>
+  </si>
+  <si>
+    <t>HP:0100702</t>
+  </si>
+  <si>
+    <t>Developmental and Epileptic Encephalopathy 115</t>
+  </si>
+  <si>
+    <t>Neurodevelopmental Disorder Plus Optic Atrophy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +594,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -336,7 +616,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -359,14 +639,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,15 +985,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP12"/>
+  <dimension ref="A1:BV12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="27.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,548 +1069,2377 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>38</v>
+        <v>132</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>41</v>
+        <v>139</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BM1" s="1" t="s">
+      <c r="F3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" t="s">
         <v>48</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="H3" t="s">
         <v>49</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>22</v>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" t="s">
+        <v>117</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" t="s">
+        <v>117</v>
+      </c>
+      <c r="W5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>117</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="J6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:74" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>82</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="BA2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BF2" t="s">
+      <c r="C7" t="s">
         <v>88</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V7" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>117</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:74" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>117</v>
+      </c>
+      <c r="S8" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:74" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" t="s">
+        <v>117</v>
+      </c>
+      <c r="S9" t="s">
+        <v>117</v>
+      </c>
+      <c r="T9" t="s">
+        <v>136</v>
+      </c>
+      <c r="U9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" t="s">
+        <v>117</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>117</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:74" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
         <v>91</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" t="s">
+        <v>117</v>
+      </c>
+      <c r="S10" t="s">
+        <v>117</v>
+      </c>
+      <c r="T10" t="s">
+        <v>117</v>
+      </c>
+      <c r="U10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" t="s">
+        <v>117</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:74" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="BK2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM2" t="s">
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" t="s">
         <v>93</v>
       </c>
-      <c r="BN2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>67</v>
+      <c r="Q11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" t="s">
+        <v>54</v>
+      </c>
+      <c r="X11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>61</v>
-      </c>
+    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="BV12" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>